--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il4-Il13ra2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il4-Il13ra2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.155562</v>
+      </c>
+      <c r="H2">
+        <v>0.466686</v>
+      </c>
+      <c r="I2">
+        <v>0.04499457894025669</v>
+      </c>
+      <c r="J2">
+        <v>0.05066525794134161</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.4801966666666667</v>
-      </c>
-      <c r="H2">
-        <v>1.44059</v>
-      </c>
-      <c r="I2">
-        <v>0.1184791841871053</v>
-      </c>
-      <c r="J2">
-        <v>0.1302437462722826</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.2837743333333333</v>
+        <v>0.4472413333333334</v>
       </c>
       <c r="N2">
-        <v>0.8513229999999999</v>
+        <v>1.341724</v>
       </c>
       <c r="O2">
-        <v>0.3291950156124629</v>
+        <v>0.4361236687690723</v>
       </c>
       <c r="P2">
-        <v>0.3291950156124629</v>
+        <v>0.4361236687690722</v>
       </c>
       <c r="Q2">
-        <v>0.1362674889522222</v>
+        <v>0.06957375629600002</v>
       </c>
       <c r="R2">
-        <v>1.22640740057</v>
+        <v>0.6261638066640001</v>
       </c>
       <c r="S2">
-        <v>0.03900275688822601</v>
+        <v>0.01962320084214439</v>
       </c>
       <c r="T2">
-        <v>0.04287559208752972</v>
+        <v>0.02209631817250927</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4801966666666667</v>
+        <v>0.155562</v>
       </c>
       <c r="H3">
-        <v>1.44059</v>
+        <v>0.466686</v>
       </c>
       <c r="I3">
-        <v>0.1184791841871053</v>
+        <v>0.04499457894025669</v>
       </c>
       <c r="J3">
-        <v>0.1302437462722826</v>
+        <v>0.05066525794134161</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>1.734752</v>
       </c>
       <c r="O3">
-        <v>0.6708049843875371</v>
+        <v>0.5638763312309278</v>
       </c>
       <c r="P3">
-        <v>0.6708049843875371</v>
+        <v>0.5638763312309278</v>
       </c>
       <c r="Q3">
-        <v>0.2776740426311111</v>
+        <v>0.08995383020799999</v>
       </c>
       <c r="R3">
-        <v>2.49906638368</v>
+        <v>0.8095844718719999</v>
       </c>
       <c r="S3">
-        <v>0.07947642729887931</v>
+        <v>0.02537137809811231</v>
       </c>
       <c r="T3">
-        <v>0.08736815418475286</v>
+        <v>0.02856893976883234</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,40 +670,40 @@
         <v>5.245687</v>
       </c>
       <c r="I4">
-        <v>0.4314237335125913</v>
+        <v>0.5057522141597954</v>
       </c>
       <c r="J4">
-        <v>0.4742625775909948</v>
+        <v>0.5694923030357509</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2837743333333333</v>
+        <v>0.4472413333333334</v>
       </c>
       <c r="N4">
-        <v>0.8513229999999999</v>
+        <v>1.341724</v>
       </c>
       <c r="O4">
-        <v>0.3291950156124629</v>
+        <v>0.4361236687690723</v>
       </c>
       <c r="P4">
-        <v>0.3291950156124629</v>
+        <v>0.4361236687690722</v>
       </c>
       <c r="Q4">
-        <v>0.4961971104334444</v>
+        <v>0.7820293493764445</v>
       </c>
       <c r="R4">
-        <v>4.465773993901</v>
+        <v>7.038264144388001</v>
       </c>
       <c r="S4">
-        <v>0.1420225426892645</v>
+        <v>0.2205705111274515</v>
       </c>
       <c r="T4">
-        <v>0.1561248766344744</v>
+        <v>0.2483690725357</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>5.245687</v>
       </c>
       <c r="I5">
-        <v>0.4314237335125913</v>
+        <v>0.5057522141597954</v>
       </c>
       <c r="J5">
-        <v>0.4742625775909948</v>
+        <v>0.5694923030357509</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -750,10 +750,10 @@
         <v>1.734752</v>
       </c>
       <c r="O5">
-        <v>0.6708049843875371</v>
+        <v>0.5638763312309278</v>
       </c>
       <c r="P5">
-        <v>0.6708049843875371</v>
+        <v>0.5638763312309278</v>
       </c>
       <c r="Q5">
         <v>1.011107334958222</v>
@@ -762,10 +762,10 @@
         <v>9.099966014624</v>
       </c>
       <c r="S5">
-        <v>0.2894011908233268</v>
+        <v>0.285181703032344</v>
       </c>
       <c r="T5">
-        <v>0.3181377009565203</v>
+        <v>0.321123230500051</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1608456666666667</v>
+        <v>0.2140146666666667</v>
       </c>
       <c r="H6">
-        <v>0.482537</v>
+        <v>0.6420440000000001</v>
       </c>
       <c r="I6">
-        <v>0.03968553863354128</v>
+        <v>0.06190136288879069</v>
       </c>
       <c r="J6">
-        <v>0.04362617163453059</v>
+        <v>0.06970280846155817</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2837743333333333</v>
+        <v>0.4472413333333334</v>
       </c>
       <c r="N6">
-        <v>0.8513229999999999</v>
+        <v>1.341724</v>
       </c>
       <c r="O6">
-        <v>0.3291950156124629</v>
+        <v>0.4361236687690723</v>
       </c>
       <c r="P6">
-        <v>0.3291950156124629</v>
+        <v>0.4361236687690722</v>
       </c>
       <c r="Q6">
-        <v>0.04564387182788888</v>
+        <v>0.09571620487288891</v>
       </c>
       <c r="R6">
-        <v>0.410794846451</v>
+        <v>0.8614458438560002</v>
       </c>
       <c r="S6">
-        <v>0.01306428151005762</v>
+        <v>0.02699664948486509</v>
       </c>
       <c r="T6">
-        <v>0.01436151825234128</v>
+        <v>0.03039904454976268</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1608456666666667</v>
+        <v>0.2140146666666667</v>
       </c>
       <c r="H7">
-        <v>0.482537</v>
+        <v>0.6420440000000001</v>
       </c>
       <c r="I7">
-        <v>0.03968553863354128</v>
+        <v>0.06190136288879069</v>
       </c>
       <c r="J7">
-        <v>0.04362617163453059</v>
+        <v>0.06970280846155817</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -874,22 +874,22 @@
         <v>1.734752</v>
       </c>
       <c r="O7">
-        <v>0.6708049843875371</v>
+        <v>0.5638763312309278</v>
       </c>
       <c r="P7">
-        <v>0.6708049843875371</v>
+        <v>0.5638763312309278</v>
       </c>
       <c r="Q7">
-        <v>0.09300911398044442</v>
+        <v>0.1237541236764444</v>
       </c>
       <c r="R7">
-        <v>0.8370820258239999</v>
+        <v>1.113787113088</v>
       </c>
       <c r="S7">
-        <v>0.02662125712348366</v>
+        <v>0.03490471340392561</v>
       </c>
       <c r="T7">
-        <v>0.0292646533821893</v>
+        <v>0.0393037639117955</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.0982905</v>
+        <v>1.1608855</v>
       </c>
       <c r="H8">
-        <v>2.196581</v>
+        <v>2.321771</v>
       </c>
       <c r="I8">
-        <v>0.2709818111477547</v>
+        <v>0.3357732239901092</v>
       </c>
       <c r="J8">
-        <v>0.1985928948767635</v>
+        <v>0.2520605430540592</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.2837743333333333</v>
+        <v>0.4472413333333334</v>
       </c>
       <c r="N8">
-        <v>0.8513229999999999</v>
+        <v>1.341724</v>
       </c>
       <c r="O8">
-        <v>0.3291950156124629</v>
+        <v>0.4361236687690723</v>
       </c>
       <c r="P8">
-        <v>0.3291950156124629</v>
+        <v>0.4361236687690722</v>
       </c>
       <c r="Q8">
-        <v>0.3116666544438333</v>
+        <v>0.5191959788673334</v>
       </c>
       <c r="R8">
-        <v>1.869999926663</v>
+        <v>3.115175873204</v>
       </c>
       <c r="S8">
-        <v>0.0892058615514786</v>
+        <v>0.1464386503209859</v>
       </c>
       <c r="T8">
-        <v>0.06537579112948037</v>
+        <v>0.109929568788661</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.0982905</v>
+        <v>1.1608855</v>
       </c>
       <c r="H9">
-        <v>2.196581</v>
+        <v>2.321771</v>
       </c>
       <c r="I9">
-        <v>0.2709818111477547</v>
+        <v>0.3357732239901092</v>
       </c>
       <c r="J9">
-        <v>0.1985928948767635</v>
+        <v>0.2520605430540592</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -998,22 +998,22 @@
         <v>1.734752</v>
       </c>
       <c r="O9">
-        <v>0.6708049843875371</v>
+        <v>0.5638763312309278</v>
       </c>
       <c r="P9">
-        <v>0.6708049843875371</v>
+        <v>0.5638763312309278</v>
       </c>
       <c r="Q9">
-        <v>0.6350872138186666</v>
+        <v>0.6712828142986665</v>
       </c>
       <c r="R9">
-        <v>3.810523282912</v>
+        <v>4.027696885791999</v>
       </c>
       <c r="S9">
-        <v>0.1817759495962761</v>
+        <v>0.1893345736691233</v>
       </c>
       <c r="T9">
-        <v>0.1332171037472832</v>
+        <v>0.1421309742653982</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1783253333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.534976</v>
+      </c>
+      <c r="I10">
+        <v>0.05157862002104791</v>
+      </c>
+      <c r="J10">
+        <v>0.05807908750729007</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G10">
-        <v>0.5651093333333334</v>
-      </c>
-      <c r="H10">
-        <v>1.695328</v>
-      </c>
-      <c r="I10">
-        <v>0.1394297325190074</v>
-      </c>
-      <c r="J10">
-        <v>0.1532746096254287</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M10">
-        <v>0.2837743333333333</v>
+        <v>0.4472413333333334</v>
       </c>
       <c r="N10">
-        <v>0.8513229999999999</v>
+        <v>1.341724</v>
       </c>
       <c r="O10">
-        <v>0.3291950156124629</v>
+        <v>0.4361236687690723</v>
       </c>
       <c r="P10">
-        <v>0.3291950156124629</v>
+        <v>0.4361236687690722</v>
       </c>
       <c r="Q10">
-        <v>0.1603635243271111</v>
+        <v>0.07975445984711112</v>
       </c>
       <c r="R10">
-        <v>1.443271718944</v>
+        <v>0.7177901386240001</v>
       </c>
       <c r="S10">
-        <v>0.04589957297343617</v>
+        <v>0.02249465699362534</v>
       </c>
       <c r="T10">
-        <v>0.05045723750863714</v>
+        <v>0.02532966472243933</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.5651093333333334</v>
+        <v>0.1783253333333333</v>
       </c>
       <c r="H11">
-        <v>1.695328</v>
+        <v>0.534976</v>
       </c>
       <c r="I11">
-        <v>0.1394297325190074</v>
+        <v>0.05157862002104791</v>
       </c>
       <c r="J11">
-        <v>0.1532746096254287</v>
+        <v>0.05807908750729007</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1122,22 +1122,22 @@
         <v>1.734752</v>
       </c>
       <c r="O11">
-        <v>0.6708049843875371</v>
+        <v>0.5638763312309278</v>
       </c>
       <c r="P11">
-        <v>0.6708049843875371</v>
+        <v>0.5638763312309278</v>
       </c>
       <c r="Q11">
-        <v>0.3267748487395555</v>
+        <v>0.1031167428835555</v>
       </c>
       <c r="R11">
-        <v>2.940973638656</v>
+        <v>0.9280506859519999</v>
       </c>
       <c r="S11">
-        <v>0.09353015954557123</v>
+        <v>0.02908396302742258</v>
       </c>
       <c r="T11">
-        <v>0.1028173721167915</v>
+        <v>0.03274942278485073</v>
       </c>
     </row>
   </sheetData>
